--- a/EndResult/200m Medley.xlsx
+++ b/EndResult/200m Medley.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,12 +682,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manith Randula Attanapola</t>
+          <t>Christian Tronvoll</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.14,67</t>
+          <t>2.14,69</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -695,12 +695,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>18.01.2014</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -717,12 +717,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Christian Tronvoll</t>
+          <t>Manith Randula Attanapola</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2.14,69</t>
+          <t>2.14,67</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -730,12 +730,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.01.2014</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -983,12 +983,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tudor Ignat</t>
+          <t>Gabriel Rognes Steen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.18,54</t>
+          <t>2.18,49</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08.08.2023</t>
+          <t>22.05.2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kyushu</t>
+          <t>Funchal</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1018,12 +1018,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gabriel Rognes Steen</t>
+          <t>Tudor Ignat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.18,49</t>
+          <t>2.18,54</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.05.2021</t>
+          <t>08.08.2023</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Funchal</t>
+          <t>Kyushu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
